--- a/2_Formulas/Formula_Excel_Template_Solution.xlsx
+++ b/2_Formulas/Formula_Excel_Template_Solution.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="91">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -260,6 +260,15 @@
     <t>with NO instances</t>
   </si>
   <si>
+    <t>10-3-1999</t>
+  </si>
+  <si>
+    <t>5-6-2001</t>
+  </si>
+  <si>
+    <t>8-10-2003</t>
+  </si>
+  <si>
     <t>SUM</t>
   </si>
   <si>
@@ -323,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -334,6 +343,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1926,7 +1941,9 @@
     <col customWidth="1" min="8" max="8" width="14.29"/>
     <col customWidth="1" min="9" max="9" width="14.71"/>
     <col customWidth="1" min="10" max="10" width="22.0"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col customWidth="1" min="11" max="11" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="28.14"/>
+    <col customWidth="1" min="13" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1958,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -1989,6 +2006,14 @@
       <c r="I2" s="2">
         <v>42253.0</v>
       </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" ref="J2:J10" si="1">CONCATENATE(B2," ",C2)</f>
+        <v>Jim Halpert</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f t="shared" ref="L2:L10" si="2">CONCATENATE(B2,"_",C2,"@gmail.com")</f>
+        <v>Jim_Halpert@gmail.com</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1">
@@ -2018,6 +2043,14 @@
       <c r="I3" s="2">
         <v>42287.0</v>
       </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Pam Beasley</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Pam_Beasley@gmail.com</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1">
@@ -2047,6 +2080,14 @@
       <c r="I4" s="2">
         <v>42986.0</v>
       </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dwight Schrute</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Dwight_Schrute@gmail.com</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1">
@@ -2076,6 +2117,14 @@
       <c r="I5" s="2">
         <v>42341.0</v>
       </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Angela Martin</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Angela_Martin@gmail.com</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1">
@@ -2105,6 +2154,14 @@
       <c r="I6" s="2">
         <v>42977.0</v>
       </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Toby Flenderson</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Toby_Flenderson@gmail.com</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1">
@@ -2134,6 +2191,14 @@
       <c r="I7" s="2">
         <v>41528.0</v>
       </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Michael Scott</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Michael_Scott@gmail.com</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1">
@@ -2163,6 +2228,14 @@
       <c r="I8" s="2">
         <v>41551.0</v>
       </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Meredith Palmer</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Meredith_Palmer@gmail.com</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1">
@@ -2192,6 +2265,14 @@
       <c r="I9" s="2">
         <v>42116.0</v>
       </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Stanley Hudson</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Stanley_Hudson@gmail.com</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1">
@@ -2221,16 +2302,24 @@
       <c r="I10" s="2">
         <v>40800.0</v>
       </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Kevin Malone</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Kevin_Malone@gmail.com</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="H11" s="1" t="str">
-        <f t="shared" ref="H11:H12" si="1">CONCATENATE(B11," ",C11)</f>
+        <f t="shared" ref="H11:H12" si="3">CONCATENATE(B11," ",C11)</f>
         <v> </v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="H12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v> </v>
       </c>
     </row>
@@ -3241,10 +3330,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="7" width="8.71"/>
+    <col customWidth="1" min="1" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="18.43"/>
+    <col customWidth="1" min="7" max="7" width="8.71"/>
     <col customWidth="1" min="8" max="8" width="14.43"/>
     <col customWidth="1" min="9" max="9" width="13.29"/>
-    <col customWidth="1" min="10" max="26" width="8.71"/>
+    <col customWidth="1" min="10" max="10" width="8.71"/>
+    <col customWidth="1" min="11" max="11" width="17.14"/>
+    <col customWidth="1" min="12" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3276,10 +3369,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -3310,6 +3403,14 @@
       <c r="I2" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J10" si="1">DAYS(I2,H2)</f>
+        <v>5056</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K10" si="2">NETWORKDAYS(H2,I2)</f>
+        <v>3611</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1">
@@ -3339,6 +3440,14 @@
       <c r="I3" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="J3" s="1">
+        <f t="shared" si="1"/>
+        <v>5851</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="2"/>
+        <v>4180</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1">
@@ -3368,6 +3477,14 @@
       <c r="I4" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>6275</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>4484</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1">
@@ -3397,6 +3514,14 @@
       <c r="I5" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>5811</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>4152</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1">
@@ -3426,6 +3551,14 @@
       <c r="I6" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>5960</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>4258</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1">
@@ -3455,6 +3588,14 @@
       <c r="I7" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>4511</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>3223</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1">
@@ -3484,6 +3625,14 @@
       <c r="I8" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>3595</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>2568</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1">
@@ -3513,6 +3662,14 @@
       <c r="I9" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>4700</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>3358</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1">
@@ -3541,6 +3698,14 @@
       </c>
       <c r="I10" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>4273</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>3053</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
@@ -16472,7 +16637,12 @@
     <col customWidth="1" min="1" max="1" width="10.71"/>
     <col customWidth="1" min="2" max="3" width="13.71"/>
     <col customWidth="1" min="4" max="4" width="7.71"/>
-    <col customWidth="1" min="5" max="26" width="13.71"/>
+    <col customWidth="1" min="5" max="9" width="13.71"/>
+    <col customWidth="1" min="10" max="10" width="18.0"/>
+    <col customWidth="1" min="11" max="11" width="16.71"/>
+    <col customWidth="1" min="12" max="12" width="19.43"/>
+    <col customWidth="1" min="13" max="13" width="21.71"/>
+    <col customWidth="1" min="14" max="26" width="13.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -16512,6 +16682,9 @@
       <c r="L1" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="M1" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1">
@@ -16541,6 +16714,22 @@
       <c r="I2" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" ref="J2:J10" si="1">SUBSTITUTE($H$2:$H$10,"/","-",1)</f>
+        <v>11-2/2001</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f t="shared" ref="K2:K10" si="2">SUBSTITUTE($H$2:$H$10,"/","-",2)</f>
+        <v>11/2-2001</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f t="shared" ref="L2:L10" si="3">SUBSTITUTE($H$2:$H$10,"-","/")</f>
+        <v>11/2/2001</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f t="shared" ref="M2:M10" si="4">SUBSTITUTE(I2:I10,"/","-")</f>
+        <v>9-6-2015</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1">
@@ -16564,11 +16753,27 @@
       <c r="G3" s="3">
         <v>36000.0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>47</v>
+      <c r="H3" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10-3-1999</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10-3-1999</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>10/3/1999</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>10-10-2015</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -16599,6 +16804,22 @@
       <c r="I4" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>7-4/2000</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>7/4-2000</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>7/4/2000</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>9-8-2017</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1">
@@ -16628,6 +16849,22 @@
       <c r="I5" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-5/2000</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1/5-2000</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1/5/2000</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>12-3-2015</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1">
@@ -16651,11 +16888,27 @@
       <c r="G6" s="3">
         <v>50000.0</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>56</v>
+      <c r="H6" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>57</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5-6-2001</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>5-6-2001</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>5/6/2001</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>8-30-2017</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -16686,6 +16939,22 @@
       <c r="I7" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5-6/2001</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>5/6-2001</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>5/6/2001</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>9-11-2013</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1">
@@ -16715,6 +16984,22 @@
       <c r="I8" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11-8/2003</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>11/8-2003</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>11/8/2003</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>9-11-2013</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1">
@@ -16744,6 +17029,22 @@
       <c r="I9" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>6-9/2002</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>6/9-2002</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>6/9/2002</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>4-22-2015</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1">
@@ -16767,11 +17068,27 @@
       <c r="G10" s="3">
         <v>42000.0</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>66</v>
+      <c r="H10" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>8-10-2003</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>8-10-2003</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>8/10/2003</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>4-22-2015</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -19813,13 +20130,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -19849,6 +20166,18 @@
       </c>
       <c r="I2" s="2">
         <v>42253.0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(G2:G10)</f>
+        <v>437000</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUMIF(G2:G10,"&gt;50000")</f>
+        <v>128000</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUMIFS(G2:G10,E2:E10,"Female",D2:D10,"&gt;30")</f>
+        <v>88000</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -21127,13 +21456,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -21163,6 +21492,18 @@
       </c>
       <c r="I2" s="2">
         <v>42253.0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>COUNT(G2:G10)</f>
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <f>COUNTIF(G2:G10,"&gt;45000")</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <f>COUNTIFS(A2:A10,"&gt;1005",E2:E10,"Male")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
